--- a/hybris-nao-tests/src/main/resources/QuickOrderPageUIElementsTest.xlsx
+++ b/hybris-nao-tests/src/main/resources/QuickOrderPageUIElementsTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\seleniumAutomationScripts\hybris\hyb4nov18\hybNov62017\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajkumars\git\IRWWebservice\hybris-nao-tests\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B055E80-8460-43EE-BC2F-B8823D310DBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D95DFAF-919C-4C84-AA0E-DA5A1D4C4F5A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="600" windowWidth="19440" windowHeight="7470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuickOrderPageUIElementsTest" sheetId="18" r:id="rId1"/>
@@ -55,10 +55,10 @@
     <t>2-</t>
   </si>
   <si>
-    <t>Welcome@1</t>
-  </si>
-  <si>
     <t>1364885</t>
+  </si>
+  <si>
+    <t>Welcome1</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,10 +1060,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1124,16 +1124,16 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{8D423580-9759-4B45-BEC2-DB54A81633BE}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{40330722-6761-4AD3-A0F1-7C0F582EA107}"/>
+    <hyperlink ref="A3" r:id="rId1" display="Welcome@1" xr:uid="{8D423580-9759-4B45-BEC2-DB54A81633BE}"/>
+    <hyperlink ref="B3" r:id="rId2" display="Welcome@1" xr:uid="{40330722-6761-4AD3-A0F1-7C0F582EA107}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
